--- a/biology/Zoologie/Charaxini/Charaxini.xlsx
+++ b/biology/Zoologie/Charaxini/Charaxini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Charaxini comprend des lépidoptères de la famille des Nymphalidae, de la sous-famille des Charaxinae avec le genre Charaxes dont la distribution englobe l'Afrique, l'Asie et l'Océanie. Seule l'espèce Charaxes jasius atteint le sud de l'Europe (côtes méditerranéennes).
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anciennement, la tribu comprenait plusieurs genres (Charaxes – Polyura – Stonehamia – Viridixes – Zingha)
-Selon une autre opinion, la tribu se compose du seul genre Charaxes subdivisé en plusieurs sous-genres et groupes d'espèces. Cette classification est basée sur une phylogénie moléculaire du genre Charaxes[1].
+Selon une autre opinion, la tribu se compose du seul genre Charaxes subdivisé en plusieurs sous-genres et groupes d'espèces. Cette classification est basée sur une phylogénie moléculaire du genre Charaxes.
 Sous-genre Charaxes Ochsenheimer, 1816
 Groupe zingha
 Groupe hadrianus
@@ -538,7 +552,7 @@
 Sous-genre Euxanthe Hübner, 1819
 Groupe Euxanthe
 Groupe lycurgus
-Sous-genre Polyura Billberg, 1820 (une phylogénie plus récente du sous-genre Polyura dénombre deux groupes distincts supplémentaires[2])
+Sous-genre Polyura Billberg, 1820 (une phylogénie plus récente du sous-genre Polyura dénombre deux groupes distincts supplémentaires)
 Groupe pyrrhus
 Groupe pleione
 Groupe zoolina
